--- a/chat-design.xlsx
+++ b/chat-design.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiennd/Desktop/dev/project2-vuhuy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{077769F2-01BC-2447-9C30-94FDC7CE18C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7666242-E133-7E47-8CBF-717691D714B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{BA25B954-C9F4-A24D-9BBD-19E0190EB583}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">user </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>userid</t>
   </si>
@@ -48,9 +45,6 @@
     <t>display</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>groupid</t>
   </si>
   <si>
@@ -111,12 +105,6 @@
     <t xml:space="preserve">thiết kế cơ sở dữ liệu </t>
   </si>
   <si>
-    <t>list json</t>
-  </si>
-  <si>
-    <t>list_reader</t>
-  </si>
-  <si>
     <t>list_user</t>
   </si>
   <si>
@@ -126,10 +114,109 @@
     <t>?group_image</t>
   </si>
   <si>
-    <t>text|image</t>
-  </si>
-  <si>
-    <t>message|link</t>
+    <t>?list_reader</t>
+  </si>
+  <si>
+    <t>....</t>
+  </si>
+  <si>
+    <t>Accout</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>text|media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id người gửi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id của group </t>
+  </si>
+  <si>
+    <t>tìm user theo username, display</t>
+  </si>
+  <si>
+    <t>tạo group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gửi lên nội dung cần tìm </t>
+  </si>
+  <si>
+    <t>gửi lên list userid</t>
+  </si>
+  <si>
+    <t>check tồn tại - cho nhóm 2 người</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>formData: gửi image</t>
+  </si>
+  <si>
+    <t>upload file</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>list user info full options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group info vừa được tạo </t>
+  </si>
+  <si>
+    <t>link file image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uploadfile, lấy link về, gọi api update info người dùng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">message: </t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gửi ảnh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trả link ảnh </t>
+  </si>
+  <si>
+    <t>lắp link ảnh vào message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gửi tin nhắn với content là link ảnh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lưu trong db là link ảnh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">update thông tin group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUD </t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;.</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -481,186 +568,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E513EBC5-9B27-FA41-AC0C-FFB6B702B43A}">
-  <dimension ref="D4:L22"/>
+  <dimension ref="D4:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="17" width="30.83203125" customWidth="1"/>
+    <col min="18" max="18" width="28.6640625" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="Q15" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>57</v>
+      </c>
+      <c r="R19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G22" t="s">
         <v>20</v>
       </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
+      <c r="J22" t="s">
         <v>19</v>
       </c>
-      <c r="G21" t="s">
+      <c r="L22" t="s">
         <v>19</v>
-      </c>
-      <c r="J21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/chat-design.xlsx
+++ b/chat-design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiennd/Desktop/dev/project2-vuhuy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7666242-E133-7E47-8CBF-717691D714B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD51F3E-C2F7-3D48-AB70-9B20BAC5C56D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{BA25B954-C9F4-A24D-9BBD-19E0190EB583}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>userid</t>
   </si>
@@ -48,9 +48,6 @@
     <t>groupid</t>
   </si>
   <si>
-    <t>?avatar</t>
-  </si>
-  <si>
     <t>messageid</t>
   </si>
   <si>
@@ -81,42 +78,18 @@
     <t>client on</t>
   </si>
   <si>
-    <t>leave</t>
-  </si>
-  <si>
-    <t>typing</t>
-  </si>
-  <si>
-    <t>stop-typing</t>
-  </si>
-  <si>
     <t>authenticate</t>
   </si>
   <si>
-    <t>unread-message</t>
-  </si>
-  <si>
-    <t>seen-message</t>
-  </si>
-  <si>
     <t>thiết kế giao thức</t>
   </si>
   <si>
     <t xml:space="preserve">thiết kế cơ sở dữ liệu </t>
   </si>
   <si>
-    <t>list_user</t>
-  </si>
-  <si>
     <t>group_name</t>
   </si>
   <si>
-    <t>?group_image</t>
-  </si>
-  <si>
-    <t>?list_reader</t>
-  </si>
-  <si>
     <t>....</t>
   </si>
   <si>
@@ -213,10 +186,13 @@
     <t xml:space="preserve">CRUD </t>
   </si>
   <si>
-    <t>&gt;&gt;&gt;.</t>
-  </si>
-  <si>
-    <t>&gt;&gt;&gt;&gt;</t>
+    <t>GroupDetail</t>
+  </si>
+  <si>
+    <t>userud</t>
+  </si>
+  <si>
+    <t>join_date</t>
   </si>
 </sst>
 </file>
@@ -568,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E513EBC5-9B27-FA41-AC0C-FFB6B702B43A}">
-  <dimension ref="D4:T22"/>
+  <dimension ref="D4:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:L19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,41 +559,44 @@
   <sheetData>
     <row r="4" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.2">
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="R5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="S5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
       </c>
       <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s">
         <v>36</v>
-      </c>
-      <c r="R6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="4:20" x14ac:dyDescent="0.2">
@@ -628,19 +607,22 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
       </c>
       <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" t="s">
         <v>37</v>
       </c>
-      <c r="R7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" t="s">
-        <v>46</v>
-      </c>
       <c r="T7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="4:20" x14ac:dyDescent="0.2">
@@ -648,204 +630,144 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="S9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
       <c r="H11" t="s">
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
       <c r="Q13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q14" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="R14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="4:20" x14ac:dyDescent="0.2">
       <c r="Q15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="R15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>12</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>13</v>
       </c>
-      <c r="L16" t="s">
-        <v>14</v>
-      </c>
       <c r="Q16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>8</v>
       </c>
       <c r="Q17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="R17" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q19" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="R19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/chat-design.xlsx
+++ b/chat-design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiennd/Desktop/dev/project2-vuhuy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD51F3E-C2F7-3D48-AB70-9B20BAC5C56D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDE1C85-3904-D94E-8D15-574537857686}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{BA25B954-C9F4-A24D-9BBD-19E0190EB583}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>userid</t>
   </si>
@@ -193,6 +193,105 @@
   </si>
   <si>
     <t>join_date</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lấy thông tin người đang đăng nhập </t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đăng nhập </t>
+  </si>
+  <si>
+    <t>/register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đăng ký </t>
+  </si>
+  <si>
+    <t>/change-password</t>
+  </si>
+  <si>
+    <t>đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>/auth</t>
+  </si>
+  <si>
+    <t>/api</t>
+  </si>
+  <si>
+    <t>/account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tìm tài khoản </t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>/avatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cập nhập avatar của tài khoản hiện tại </t>
+  </si>
+  <si>
+    <t>/:username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cập nhập thông tin của tài khoản hiện tại </t>
+  </si>
+  <si>
+    <t>/find?keyword=thien</t>
+  </si>
+  <si>
+    <t>/group</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tạo group mới </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lấy thông tin group và người dùng của group </t>
+  </si>
+  <si>
+    <t>/media</t>
+  </si>
+  <si>
+    <t>/upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đăng ảnh </t>
+  </si>
+  <si>
+    <t>/message</t>
+  </si>
+  <si>
+    <t>/:groupid</t>
+  </si>
+  <si>
+    <t>/name</t>
+  </si>
+  <si>
+    <t>/image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cập nhập tên nhóm </t>
+  </si>
+  <si>
+    <t>cập nhập ảnh nhóm</t>
   </si>
 </sst>
 </file>
@@ -544,14 +643,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E513EBC5-9B27-FA41-AC0C-FFB6B702B43A}">
-  <dimension ref="D4:T19"/>
+  <dimension ref="B4:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="175" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="17" max="17" width="30.83203125" customWidth="1"/>
     <col min="18" max="18" width="28.6640625" customWidth="1"/>
     <col min="19" max="19" width="29.33203125" customWidth="1"/>
@@ -728,7 +828,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>9</v>
       </c>
@@ -748,7 +848,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>14</v>
       </c>
@@ -756,7 +856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>8</v>
       </c>
@@ -768,6 +868,179 @@
       </c>
       <c r="R19" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
